--- a/team_specific_matrix/Mississippi Val._A.xlsx
+++ b/team_specific_matrix/Mississippi Val._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2330097087378641</v>
+        <v>0.2244094488188976</v>
       </c>
       <c r="C2">
-        <v>0.4757281553398058</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01456310679611651</v>
+        <v>0.01968503937007874</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1699029126213592</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1067961165048544</v>
+        <v>0.1023622047244094</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0078125</v>
       </c>
       <c r="C3">
-        <v>0.009803921568627451</v>
+        <v>0.0078125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04901960784313725</v>
+        <v>0.046875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6568627450980392</v>
+        <v>0.65625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2843137254901961</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.72</v>
+        <v>0.6875</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.28</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04854368932038835</v>
+        <v>0.048</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01941747572815534</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07766990291262135</v>
+        <v>0.08</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2281553398058253</v>
+        <v>0.228</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02912621359223301</v>
+        <v>0.028</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.145631067961165</v>
+        <v>0.14</v>
       </c>
       <c r="R6">
-        <v>0.04854368932038835</v>
+        <v>0.048</v>
       </c>
       <c r="S6">
-        <v>0.4029126213592233</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01310043668122271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07777777777777778</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.15</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03888888888888889</v>
+        <v>0.03493449781659388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="R7">
-        <v>0.07222222222222222</v>
+        <v>0.05676855895196507</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4497816593886463</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005333333333333333</v>
+        <v>0.006437768240343348</v>
       </c>
       <c r="E8">
-        <v>0.002666666666666667</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="F8">
-        <v>0.08</v>
+        <v>0.07939914163090128</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08533333333333333</v>
+        <v>0.08369098712446352</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.024</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1306666666666667</v>
+        <v>0.1287553648068669</v>
       </c>
       <c r="R8">
-        <v>0.08799999999999999</v>
+        <v>0.07510729613733906</v>
       </c>
       <c r="S8">
-        <v>0.504</v>
+        <v>0.5128755364806867</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05714285714285714</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007142857142857143</v>
+        <v>0.01104972375690608</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1071428571428571</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1357142857142857</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02142857142857143</v>
+        <v>0.02762430939226519</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1571428571428571</v>
+        <v>0.143646408839779</v>
       </c>
       <c r="R9">
-        <v>0.03571428571428571</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="S9">
-        <v>0.4785714285714286</v>
+        <v>0.5027624309392266</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1101591187270502</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01835985312117503</v>
+        <v>0.01898101898101898</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09424724602203183</v>
+        <v>0.0969030969030969</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1321909424724602</v>
+        <v>0.1348651348651349</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0208078335373317</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1909424724602203</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="R10">
-        <v>0.03059975520195838</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="S10">
-        <v>0.4026927784577723</v>
+        <v>0.3986013986013986</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1333333333333333</v>
+        <v>0.1480446927374302</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07407407407407407</v>
+        <v>0.06983240223463687</v>
       </c>
       <c r="K11">
-        <v>0.1851851851851852</v>
+        <v>0.1983240223463687</v>
       </c>
       <c r="L11">
-        <v>0.5666666666666667</v>
+        <v>0.5418994413407822</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04074074074074074</v>
+        <v>0.04189944134078212</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.757396449704142</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1715976331360947</v>
+        <v>0.1839622641509434</v>
       </c>
       <c r="K12">
-        <v>0.01775147928994083</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="L12">
-        <v>0.01775147928994083</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03550295857988166</v>
+        <v>0.04245283018867924</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02580645161290323</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1870967741935484</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="I15">
-        <v>0.05806451612903226</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="J15">
-        <v>0.3096774193548387</v>
+        <v>0.2871794871794872</v>
       </c>
       <c r="K15">
-        <v>0.07096774193548387</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O15">
-        <v>0.06451612903225806</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2838709677419355</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02586206896551724</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2413793103448276</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="I16">
-        <v>0.05172413793103448</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J16">
-        <v>0.4137931034482759</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="K16">
-        <v>0.08620689655172414</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01724137931034483</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04310344827586207</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1206896551724138</v>
+        <v>0.1527777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.007326007326007326</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2344322344322344</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="I17">
-        <v>0.1208791208791209</v>
+        <v>0.1205882352941176</v>
       </c>
       <c r="J17">
-        <v>0.3406593406593407</v>
+        <v>0.3441176470588235</v>
       </c>
       <c r="K17">
-        <v>0.0989010989010989</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01831501831501832</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N17">
-        <v>0.003663003663003663</v>
+        <v>0.002941176470588235</v>
       </c>
       <c r="O17">
-        <v>0.05494505494505494</v>
+        <v>0.05</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1208791208791209</v>
+        <v>0.1382352941176471</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02352941176470588</v>
+        <v>0.02</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I18">
-        <v>0.08235294117647059</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.3058823529411765</v>
+        <v>0.28</v>
       </c>
       <c r="K18">
-        <v>0.1647058823529412</v>
+        <v>0.17</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03529411764705882</v>
+        <v>0.03</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04705882352941176</v>
+        <v>0.04</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1411764705882353</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02305475504322766</v>
+        <v>0.02017937219730942</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2247838616714697</v>
+        <v>0.2272047832585949</v>
       </c>
       <c r="I19">
-        <v>0.08069164265129683</v>
+        <v>0.08445440956651719</v>
       </c>
       <c r="J19">
-        <v>0.3150816522574448</v>
+        <v>0.2989536621823617</v>
       </c>
       <c r="K19">
-        <v>0.1392891450528338</v>
+        <v>0.1390134529147982</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0297790585975024</v>
+        <v>0.02765321375186846</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05859750240153699</v>
+        <v>0.05680119581464873</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1287223823246878</v>
+        <v>0.1457399103139013</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mississippi Val._A.xlsx
+++ b/team_specific_matrix/Mississippi Val._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2244094488188976</v>
+        <v>0.2245614035087719</v>
       </c>
       <c r="C2">
-        <v>0.4881889763779528</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01968503937007874</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1653543307086614</v>
+        <v>0.1649122807017544</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1023622047244094</v>
+        <v>0.1087719298245614</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C3">
-        <v>0.0078125</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.046875</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.65625</v>
+        <v>0.6736111111111112</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.28125</v>
+        <v>0.2569444444444444</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6875</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.048</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02</v>
+        <v>0.01865671641791045</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.228</v>
+        <v>0.2313432835820896</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.028</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.14</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="R6">
-        <v>0.048</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="S6">
-        <v>0.408</v>
+        <v>0.4141791044776119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1048034934497817</v>
+        <v>0.108</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01310043668122271</v>
+        <v>0.012</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06550218340611354</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1572052401746725</v>
+        <v>0.16</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03493449781659388</v>
+        <v>0.044</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1179039301310044</v>
+        <v>0.112</v>
       </c>
       <c r="R7">
-        <v>0.05676855895196507</v>
+        <v>0.056</v>
       </c>
       <c r="S7">
-        <v>0.4497816593886463</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08583690987124463</v>
+        <v>0.08151093439363817</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006437768240343348</v>
+        <v>0.007952286282306162</v>
       </c>
       <c r="E8">
-        <v>0.002145922746781116</v>
+        <v>0.001988071570576541</v>
       </c>
       <c r="F8">
-        <v>0.07939914163090128</v>
+        <v>0.08349900596421471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08369098712446352</v>
+        <v>0.08548707753479125</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02575107296137339</v>
+        <v>0.02584493041749503</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1287553648068669</v>
+        <v>0.1292246520874752</v>
       </c>
       <c r="R8">
-        <v>0.07510729613733906</v>
+        <v>0.07753479125248509</v>
       </c>
       <c r="S8">
-        <v>0.5128755364806867</v>
+        <v>0.5069582504970179</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05524861878453038</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01104972375690608</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08839779005524862</v>
+        <v>0.0825242718446602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1270718232044199</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02762430939226519</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.143646408839779</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="R9">
-        <v>0.04419889502762431</v>
+        <v>0.04368932038834952</v>
       </c>
       <c r="S9">
-        <v>0.5027624309392266</v>
+        <v>0.5388349514563107</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1098901098901099</v>
+        <v>0.1128608923884514</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01898101898101898</v>
+        <v>0.02099737532808399</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0969030969030969</v>
+        <v>0.09011373578302712</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1348651348651349</v>
+        <v>0.1321084864391951</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02097902097902098</v>
+        <v>0.01924759405074366</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1868131868131868</v>
+        <v>0.1881014873140857</v>
       </c>
       <c r="R10">
-        <v>0.03296703296703297</v>
+        <v>0.03849518810148731</v>
       </c>
       <c r="S10">
-        <v>0.3986013986013986</v>
+        <v>0.3980752405949257</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1480446927374302</v>
+        <v>0.1508951406649616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06983240223463687</v>
+        <v>0.06649616368286446</v>
       </c>
       <c r="K11">
-        <v>0.1983240223463687</v>
+        <v>0.1969309462915601</v>
       </c>
       <c r="L11">
-        <v>0.5418994413407822</v>
+        <v>0.5473145780051151</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04189944134078212</v>
+        <v>0.03836317135549872</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7358490566037735</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1839622641509434</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K12">
-        <v>0.01415094339622642</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="L12">
-        <v>0.02358490566037736</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04245283018867924</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6739130434782609</v>
+        <v>0.6875</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1956521739130435</v>
+        <v>0.1875</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1304347826086956</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03076923076923077</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1641025641025641</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
-        <v>0.05641025641025641</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="J15">
-        <v>0.2871794871794872</v>
+        <v>0.2731481481481481</v>
       </c>
       <c r="K15">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.005128205128205128</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="O15">
-        <v>0.07179487179487179</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3076923076923077</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03472222222222222</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2152777777777778</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="I16">
-        <v>0.05555555555555555</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="J16">
-        <v>0.3611111111111111</v>
+        <v>0.3353658536585366</v>
       </c>
       <c r="K16">
-        <v>0.1180555555555556</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01388888888888889</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04861111111111111</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1527777777777778</v>
+        <v>0.1829268292682927</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01176470588235294</v>
+        <v>0.01055408970976253</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2117647058823529</v>
+        <v>0.2058047493403694</v>
       </c>
       <c r="I17">
-        <v>0.1205882352941176</v>
+        <v>0.1213720316622691</v>
       </c>
       <c r="J17">
-        <v>0.3441176470588235</v>
+        <v>0.3614775725593667</v>
       </c>
       <c r="K17">
-        <v>0.1058823529411765</v>
+        <v>0.1055408970976253</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01470588235294118</v>
+        <v>0.01319261213720317</v>
       </c>
       <c r="N17">
-        <v>0.002941176470588235</v>
+        <v>0.002638522427440633</v>
       </c>
       <c r="O17">
-        <v>0.05</v>
+        <v>0.05277044854881267</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1382352941176471</v>
+        <v>0.1266490765171504</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.23</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J18">
-        <v>0.28</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="K18">
-        <v>0.17</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.15</v>
+        <v>0.1367521367521368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02017937219730942</v>
+        <v>0.0195945945945946</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2272047832585949</v>
+        <v>0.2195945945945946</v>
       </c>
       <c r="I19">
-        <v>0.08445440956651719</v>
+        <v>0.08378378378378379</v>
       </c>
       <c r="J19">
-        <v>0.2989536621823617</v>
+        <v>0.3182432432432433</v>
       </c>
       <c r="K19">
-        <v>0.1390134529147982</v>
+        <v>0.1378378378378378</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02765321375186846</v>
+        <v>0.02567567567567568</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05680119581464873</v>
+        <v>0.05675675675675676</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1457399103139013</v>
+        <v>0.1385135135135135</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mississippi Val._A.xlsx
+++ b/team_specific_matrix/Mississippi Val._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2245614035087719</v>
+        <v>0.2331081081081081</v>
       </c>
       <c r="C2">
-        <v>0.4842105263157895</v>
+        <v>0.4763513513513514</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01754385964912281</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1649122807017544</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1087719298245614</v>
+        <v>0.1047297297297297</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006944444444444444</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="C3">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6736111111111112</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2569444444444444</v>
+        <v>0.2585034013605442</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6578947368421053</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3421052631578947</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04477611940298507</v>
+        <v>0.04642857142857143</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01865671641791045</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07462686567164178</v>
+        <v>0.075</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2313432835820896</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02985074626865672</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1417910447761194</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R6">
-        <v>0.04477611940298507</v>
+        <v>0.05</v>
       </c>
       <c r="S6">
-        <v>0.4141791044776119</v>
+        <v>0.4178571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108</v>
+        <v>0.1075697211155379</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.012</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.1593625498007968</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.044</v>
+        <v>0.04382470119521913</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.112</v>
+        <v>0.1155378486055777</v>
       </c>
       <c r="R7">
-        <v>0.056</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="S7">
-        <v>0.448</v>
+        <v>0.4462151394422311</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08151093439363817</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007952286282306162</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="E8">
-        <v>0.001988071570576541</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F8">
-        <v>0.08349900596421471</v>
+        <v>0.09038461538461538</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08548707753479125</v>
+        <v>0.08269230769230769</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02584493041749503</v>
+        <v>0.025</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1292246520874752</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="R8">
-        <v>0.07753479125248509</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S8">
-        <v>0.5069582504970179</v>
+        <v>0.5038461538461538</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04854368932038835</v>
+        <v>0.05092592592592592</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009708737864077669</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0825242718446602</v>
+        <v>0.07870370370370371</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.116504854368932</v>
+        <v>0.1203703703703704</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02427184466019417</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1359223300970874</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="R9">
-        <v>0.04368932038834952</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S9">
-        <v>0.5388349514563107</v>
+        <v>0.5324074074074074</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1128608923884514</v>
+        <v>0.1131105398457583</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02099737532808399</v>
+        <v>0.02056555269922879</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09011373578302712</v>
+        <v>0.0908311910882605</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1321084864391951</v>
+        <v>0.130248500428449</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01924759405074366</v>
+        <v>0.01970865467009426</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1881014873140857</v>
+        <v>0.1928020565552699</v>
       </c>
       <c r="R10">
-        <v>0.03849518810148731</v>
+        <v>0.03941730934018852</v>
       </c>
       <c r="S10">
-        <v>0.3980752405949257</v>
+        <v>0.3933161953727506</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1508951406649616</v>
+        <v>0.149746192893401</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06649616368286446</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="K11">
-        <v>0.1969309462915601</v>
+        <v>0.1954314720812183</v>
       </c>
       <c r="L11">
-        <v>0.5473145780051151</v>
+        <v>0.550761421319797</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03836317135549872</v>
+        <v>0.03807106598984772</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7359307359307359</v>
+        <v>0.7319148936170212</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1904761904761905</v>
+        <v>0.1957446808510638</v>
       </c>
       <c r="K12">
-        <v>0.01298701298701299</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="L12">
-        <v>0.02164502164502164</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03896103896103896</v>
+        <v>0.03829787234042553</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="I15">
-        <v>0.06481481481481481</v>
+        <v>0.06696428571428571</v>
       </c>
       <c r="J15">
-        <v>0.2731481481481481</v>
+        <v>0.2767857142857143</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.004629629629629629</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="O15">
-        <v>0.06481481481481481</v>
+        <v>0.0625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3055555555555556</v>
+        <v>0.3035714285714285</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03048780487804878</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2195121951219512</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="I16">
-        <v>0.06097560975609756</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J16">
-        <v>0.3353658536585366</v>
+        <v>0.3411764705882353</v>
       </c>
       <c r="K16">
-        <v>0.1097560975609756</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01829268292682927</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0426829268292683</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1829268292682927</v>
+        <v>0.1941176470588235</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01055408970976253</v>
+        <v>0.01012658227848101</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2058047493403694</v>
+        <v>0.2126582278481013</v>
       </c>
       <c r="I17">
-        <v>0.1213720316622691</v>
+        <v>0.1215189873417721</v>
       </c>
       <c r="J17">
-        <v>0.3614775725593667</v>
+        <v>0.3594936708860759</v>
       </c>
       <c r="K17">
-        <v>0.1055408970976253</v>
+        <v>0.1012658227848101</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01319261213720317</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="N17">
-        <v>0.002638522427440633</v>
+        <v>0.002531645569620253</v>
       </c>
       <c r="O17">
-        <v>0.05277044854881267</v>
+        <v>0.05316455696202532</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1266490765171504</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0170940170940171</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2136752136752137</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="I18">
-        <v>0.1025641025641026</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="J18">
-        <v>0.3162393162393162</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="K18">
-        <v>0.1538461538461539</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02564102564102564</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03418803418803419</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1367521367521368</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0195945945945946</v>
+        <v>0.02113606340819022</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2195945945945946</v>
+        <v>0.2199471598414795</v>
       </c>
       <c r="I19">
-        <v>0.08378378378378379</v>
+        <v>0.08586525759577279</v>
       </c>
       <c r="J19">
-        <v>0.3182432432432433</v>
+        <v>0.3163804491413474</v>
       </c>
       <c r="K19">
-        <v>0.1378378378378378</v>
+        <v>0.1347424042272127</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02567567567567568</v>
+        <v>0.02509907529722589</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05675675675675676</v>
+        <v>0.05812417437252312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1385135135135135</v>
+        <v>0.1387054161162483</v>
       </c>
     </row>
   </sheetData>
